--- a/Projekt/Erlaubte Technologien.xlsx
+++ b/Projekt/Erlaubte Technologien.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC 2025 FS\webec-private-2025-fs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B853DCB8-ED49-4F28-A8A4-DB09570EE9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D340CC-FEFC-4E39-91FA-BE94B229B589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF61D5BC-BE89-4295-B826-DB37A7621F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Vorlesungs-Stack</t>
   </si>
@@ -129,20 +129,24 @@
     <t>Font Awesome Icons</t>
   </si>
   <si>
+    <t>FS 2025 bei Adrian Herzog</t>
+  </si>
+  <si>
+    <t>Playwright, HtmlUnit, Cypress</t>
+  </si>
+  <si>
+    <t>Libraries für Java oder Kotlin (z.B. Um Grafiken zu generieren oder ein GraphQL API zu konsumieren)</t>
+  </si>
+  <si>
     <t>- Selber geschriebenes JavaScript
+- Leichtgewichtige HTMX-artige Libraries
 - JS Libraries zur Darstellung von Charts und Graphen (z.B. Cytosape.js)
 - JS Libraries zur Verwendung von WebSockets
 - JS Rich Text Editor (z.B. Quill)
 - Weitere spezifische Libraries (z.B. Tagify)</t>
   </si>
   <si>
-    <t>FS 2025 bei Adrian Herzog</t>
-  </si>
-  <si>
-    <t>Playwright, HtmlUnit, Cypress</t>
-  </si>
-  <si>
-    <t>Libraries für Java oder Kotlin (z.B. Um Grafiken zu generieren oder ein GraphQL API zu konsumieren)</t>
+    <t>Gradle</t>
   </si>
 </sst>
 </file>
@@ -619,32 +623,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7B0C79-0EFD-442A-87F9-28EEDD1CF9B5}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -656,13 +660,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="14"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -674,7 +678,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
@@ -686,25 +690,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="14"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -716,7 +720,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>2</v>
@@ -726,13 +730,13 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="14"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
@@ -744,13 +748,13 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="14"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
@@ -760,7 +764,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
         <v>5</v>
@@ -770,13 +774,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="14"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
@@ -784,17 +788,17 @@
         <v>7</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="14"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -806,13 +810,13 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="14"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>27</v>
       </c>
@@ -822,15 +826,15 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="14" t="s">
@@ -838,6 +842,14 @@
       </c>
       <c r="D24" s="8"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
